--- a/ExcelFiles/Offices/7.COOR 150.xlsx
+++ b/ExcelFiles/Offices/7.COOR 150.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -733,19 +733,19 @@
         <v>0.3125</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -765,19 +765,19 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0.812500000000001</v>
       </c>
       <c r="B30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
